--- a/flat-template/template.xlsx
+++ b/flat-template/template.xlsx
@@ -1,47 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="releases" sheetId="1" r:id="rId1"/>
-    <s:sheet name="awa_ame_changes" sheetId="2" r:id="rId2"/>
-    <s:sheet name="awa_documents" sheetId="3" r:id="rId3"/>
-    <s:sheet name="awa_ite_additionalClassificatio" sheetId="4" r:id="rId4"/>
-    <s:sheet name="awa_items" sheetId="5" r:id="rId5"/>
-    <s:sheet name="awa_sup_additionalIdentifiers" sheetId="6" r:id="rId6"/>
-    <s:sheet name="awa_suppliers" sheetId="7" r:id="rId7"/>
-    <s:sheet name="awards" sheetId="8" r:id="rId8"/>
-    <s:sheet name="buy_additionalIdentifiers" sheetId="9" r:id="rId9"/>
-    <s:sheet name="con_ame_changes" sheetId="10" r:id="rId10"/>
-    <s:sheet name="con_documents" sheetId="11" r:id="rId11"/>
-    <s:sheet name="con_imp_documents" sheetId="12" r:id="rId12"/>
-    <s:sheet name="con_imp_mil_documents" sheetId="13" r:id="rId13"/>
-    <s:sheet name="con_imp_milestones" sheetId="14" r:id="rId14"/>
-    <s:sheet name="con_imp_transactions" sheetId="15" r:id="rId15"/>
-    <s:sheet name="con_ite_additionalClassificatio" sheetId="16" r:id="rId16"/>
-    <s:sheet name="con_items" sheetId="17" r:id="rId17"/>
-    <s:sheet name="contracts" sheetId="18" r:id="rId18"/>
-    <s:sheet name="pla_documents" sheetId="19" r:id="rId19"/>
-    <s:sheet name="ten_ame_changes" sheetId="20" r:id="rId20"/>
-    <s:sheet name="ten_documents" sheetId="21" r:id="rId21"/>
-    <s:sheet name="ten_ite_additionalClassificatio" sheetId="22" r:id="rId22"/>
-    <s:sheet name="ten_items" sheetId="23" r:id="rId23"/>
-    <s:sheet name="ten_mil_documents" sheetId="24" r:id="rId24"/>
-    <s:sheet name="ten_milestones" sheetId="25" r:id="rId25"/>
-    <s:sheet name="ten_pro_additionalIdentifiers" sheetId="26" r:id="rId26"/>
-    <s:sheet name="ten_ten_additionalIdentifiers" sheetId="27" r:id="rId27"/>
-    <s:sheet name="ten_tenderers" sheetId="28" r:id="rId28"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="releases" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_amend_changes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_amendments" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_documents" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_items" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_items_additionalClassific" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_suppl_additionalIdentifie" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="award_suppliers" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="awards" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="buyer_additionalIdentifiers" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_amend_changes" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_amendments" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_documents" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_documents" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_miles_documents" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_milestones" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_trans_payee_additio" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_trans_payer_additio" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_imple_transactions" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_items" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_items_additionalClassific" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_miles_documents" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_milestones" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contr_relatedProcesses" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="contracts" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="parti_additionalIdentifiers" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="parties" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plann_documents" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plann_miles_documents" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plann_milestones" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="relatedProcesses" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_amend_changes" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_amendments" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_documents" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_items" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_items_additionalClassific" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_miles_documents" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_milestones" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_procu_additionalIdentifie" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_tende_additionalIdentifie" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tende_tenderers" sheetId="41" state="visible" r:id="rId41"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="453">
   <si>
     <t>ocid</t>
   </si>
@@ -58,33 +72,81 @@
     <t>initiationType</t>
   </si>
   <si>
+    <t>buyer/name</t>
+  </si>
+  <si>
+    <t>buyer/id</t>
+  </si>
+  <si>
+    <t>buyer/identifier/scheme</t>
+  </si>
+  <si>
+    <t>buyer/identifier/id</t>
+  </si>
+  <si>
+    <t>buyer/identifier/legalName</t>
+  </si>
+  <si>
+    <t>buyer/identifier/uri</t>
+  </si>
+  <si>
+    <t>buyer/address/streetAddress</t>
+  </si>
+  <si>
+    <t>buyer/address/locality</t>
+  </si>
+  <si>
+    <t>buyer/address/region</t>
+  </si>
+  <si>
+    <t>buyer/address/postalCode</t>
+  </si>
+  <si>
+    <t>buyer/address/countryName</t>
+  </si>
+  <si>
+    <t>buyer/contactPoint/name</t>
+  </si>
+  <si>
+    <t>buyer/contactPoint/email</t>
+  </si>
+  <si>
+    <t>buyer/contactPoint/telephone</t>
+  </si>
+  <si>
+    <t>buyer/contactPoint/faxNumber</t>
+  </si>
+  <si>
+    <t>buyer/contactPoint/url</t>
+  </si>
+  <si>
+    <t>planning/rationale</t>
+  </si>
+  <si>
+    <t>planning/budget/id</t>
+  </si>
+  <si>
+    <t>planning/budget/description</t>
+  </si>
+  <si>
+    <t>planning/budget/amount/amount</t>
+  </si>
+  <si>
+    <t>planning/budget/amount/currency</t>
+  </si>
+  <si>
+    <t>planning/budget/project</t>
+  </si>
+  <si>
+    <t>planning/budget/projectID</t>
+  </si>
+  <si>
+    <t>planning/budget/uri</t>
+  </si>
+  <si>
     <t>planning/budget/source</t>
   </si>
   <si>
-    <t>planning/budget/id</t>
-  </si>
-  <si>
-    <t>planning/budget/description</t>
-  </si>
-  <si>
-    <t>planning/budget/amount/amount</t>
-  </si>
-  <si>
-    <t>planning/budget/amount/currency</t>
-  </si>
-  <si>
-    <t>planning/budget/project</t>
-  </si>
-  <si>
-    <t>planning/budget/projectID</t>
-  </si>
-  <si>
-    <t>planning/budget/uri</t>
-  </si>
-  <si>
-    <t>planning/rationale</t>
-  </si>
-  <si>
     <t>tender/id</t>
   </si>
   <si>
@@ -97,24 +159,81 @@
     <t>tender/status</t>
   </si>
   <si>
+    <t>tender/procuringEntity/name</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/id</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/identifier/scheme</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/identifier/id</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/identifier/legalName</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/identifier/uri</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/address/streetAddress</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/address/locality</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/address/region</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/address/postalCode</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/address/countryName</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/contactPoint/name</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/contactPoint/email</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/contactPoint/telephone</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/contactPoint/faxNumber</t>
+  </si>
+  <si>
+    <t>tender/procuringEntity/contactPoint/url</t>
+  </si>
+  <si>
+    <t>tender/value/amount</t>
+  </si>
+  <si>
+    <t>tender/value/currency</t>
+  </si>
+  <si>
     <t>tender/minValue/amount</t>
   </si>
   <si>
     <t>tender/minValue/currency</t>
   </si>
   <si>
-    <t>tender/value/amount</t>
-  </si>
-  <si>
-    <t>tender/value/currency</t>
-  </si>
-  <si>
     <t>tender/procurementMethod</t>
   </si>
   <si>
+    <t>tender/procurementMethodDetails</t>
+  </si>
+  <si>
     <t>tender/procurementMethodRationale</t>
   </si>
   <si>
+    <t>tender/mainProcurementCategory</t>
+  </si>
+  <si>
+    <t>tender/additionalProcurementCategories</t>
+  </si>
+  <si>
     <t>tender/awardCriteria</t>
   </si>
   <si>
@@ -133,12 +252,24 @@
     <t>tender/tenderPeriod/endDate</t>
   </si>
   <si>
+    <t>tender/tenderPeriod/maxExtentDate</t>
+  </si>
+  <si>
+    <t>tender/tenderPeriod/durationInDays</t>
+  </si>
+  <si>
     <t>tender/enquiryPeriod/startDate</t>
   </si>
   <si>
     <t>tender/enquiryPeriod/endDate</t>
   </si>
   <si>
+    <t>tender/enquiryPeriod/maxExtentDate</t>
+  </si>
+  <si>
+    <t>tender/enquiryPeriod/durationInDays</t>
+  </si>
+  <si>
     <t>tender/hasEnquiries</t>
   </si>
   <si>
@@ -151,103 +282,43 @@
     <t>tender/awardPeriod/endDate</t>
   </si>
   <si>
+    <t>tender/awardPeriod/maxExtentDate</t>
+  </si>
+  <si>
+    <t>tender/awardPeriod/durationInDays</t>
+  </si>
+  <si>
+    <t>tender/contractPeriod/startDate</t>
+  </si>
+  <si>
+    <t>tender/contractPeriod/endDate</t>
+  </si>
+  <si>
+    <t>tender/contractPeriod/maxExtentDate</t>
+  </si>
+  <si>
+    <t>tender/contractPeriod/durationInDays</t>
+  </si>
+  <si>
     <t>tender/numberOfTenderers</t>
   </si>
   <si>
-    <t>tender/procuringEntity/identifier/scheme</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/identifier/id</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/identifier/legalName</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/identifier/uri</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/name</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/address/streetAddress</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/address/locality</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/address/region</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/address/postalCode</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/address/countryName</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/contactPoint/name</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/contactPoint/email</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/contactPoint/telephone</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/contactPoint/faxNumber</t>
-  </si>
-  <si>
-    <t>tender/procuringEntity/contactPoint/url</t>
-  </si>
-  <si>
     <t>tender/amendment/date</t>
   </si>
   <si>
     <t>tender/amendment/rationale</t>
   </si>
   <si>
-    <t>buyer/identifier/scheme</t>
-  </si>
-  <si>
-    <t>buyer/identifier/id</t>
-  </si>
-  <si>
-    <t>buyer/identifier/legalName</t>
-  </si>
-  <si>
-    <t>buyer/identifier/uri</t>
-  </si>
-  <si>
-    <t>buyer/name</t>
-  </si>
-  <si>
-    <t>buyer/address/streetAddress</t>
-  </si>
-  <si>
-    <t>buyer/address/locality</t>
-  </si>
-  <si>
-    <t>buyer/address/region</t>
-  </si>
-  <si>
-    <t>buyer/address/postalCode</t>
-  </si>
-  <si>
-    <t>buyer/address/countryName</t>
-  </si>
-  <si>
-    <t>buyer/contactPoint/name</t>
-  </si>
-  <si>
-    <t>buyer/contactPoint/email</t>
-  </si>
-  <si>
-    <t>buyer/contactPoint/telephone</t>
-  </si>
-  <si>
-    <t>buyer/contactPoint/faxNumber</t>
-  </si>
-  <si>
-    <t>buyer/contactPoint/url</t>
+    <t>tender/amendment/id</t>
+  </si>
+  <si>
+    <t>tender/amendment/description</t>
+  </si>
+  <si>
+    <t>tender/amendment/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>tender/amendment/releaseID</t>
   </si>
   <si>
     <t>language</t>
@@ -256,9 +327,33 @@
     <t>awards/0/id</t>
   </si>
   <si>
+    <t>awards/0/amendments/0/id</t>
+  </si>
+  <si>
+    <t>awards/0/amendment/id</t>
+  </si>
+  <si>
+    <t>awards/0/amendments/0/changes/0/property</t>
+  </si>
+  <si>
     <t>awards/0/amendment/changes/0/property</t>
   </si>
   <si>
+    <t>awards/0/amendments/0/date</t>
+  </si>
+  <si>
+    <t>awards/0/amendments/0/rationale</t>
+  </si>
+  <si>
+    <t>awards/0/amendments/0/description</t>
+  </si>
+  <si>
+    <t>awards/0/amendments/0/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>awards/0/amendments/0/releaseID</t>
+  </si>
+  <si>
     <t>awards/0/documents/0/id</t>
   </si>
   <si>
@@ -289,6 +384,42 @@
     <t>awards/0/items/0/id</t>
   </si>
   <si>
+    <t>awards/0/items/0/description</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/classification/scheme</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/classification/id</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/classification/description</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/classification/uri</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/quantity</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/scheme</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/id</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/name</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/value/amount</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/value/currency</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/unit/uri</t>
+  </si>
+  <si>
     <t>awards/0/items/0/additionalClassifications/0/scheme</t>
   </si>
   <si>
@@ -301,31 +432,7 @@
     <t>awards/0/items/0/additionalClassifications/0/uri</t>
   </si>
   <si>
-    <t>awards/0/items/0/description</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/classification/scheme</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/classification/id</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/classification/description</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/classification/uri</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/quantity</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/unit/name</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/unit/value/amount</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/unit/value/currency</t>
+    <t>awards/0/suppliers/0/id</t>
   </si>
   <si>
     <t>awards/0/suppliers/0/additionalIdentifiers/0/scheme</t>
@@ -340,6 +447,9 @@
     <t>awards/0/suppliers/0/additionalIdentifiers/0/uri</t>
   </si>
   <si>
+    <t>awards/0/suppliers/0/name</t>
+  </si>
+  <si>
     <t>awards/0/suppliers/0/identifier/scheme</t>
   </si>
   <si>
@@ -352,9 +462,6 @@
     <t>awards/0/suppliers/0/identifier/uri</t>
   </si>
   <si>
-    <t>awards/0/suppliers/0/name</t>
-  </si>
-  <si>
     <t>awards/0/suppliers/0/address/streetAddress</t>
   </si>
   <si>
@@ -409,12 +516,27 @@
     <t>awards/0/contractPeriod/endDate</t>
   </si>
   <si>
+    <t>awards/0/contractPeriod/maxExtentDate</t>
+  </si>
+  <si>
+    <t>awards/0/contractPeriod/durationInDays</t>
+  </si>
+  <si>
     <t>awards/0/amendment/date</t>
   </si>
   <si>
     <t>awards/0/amendment/rationale</t>
   </si>
   <si>
+    <t>awards/0/amendment/description</t>
+  </si>
+  <si>
+    <t>awards/0/amendment/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>awards/0/amendment/releaseID</t>
+  </si>
+  <si>
     <t>buyer/additionalIdentifiers/0/scheme</t>
   </si>
   <si>
@@ -430,9 +552,33 @@
     <t>contracts/0/id</t>
   </si>
   <si>
+    <t>contracts/0/amendments/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/amendment/id</t>
+  </si>
+  <si>
+    <t>contracts/0/amendments/0/changes/0/property</t>
+  </si>
+  <si>
     <t>contracts/0/amendment/changes/0/property</t>
   </si>
   <si>
+    <t>contracts/0/amendments/0/date</t>
+  </si>
+  <si>
+    <t>contracts/0/amendments/0/rationale</t>
+  </si>
+  <si>
+    <t>contracts/0/amendments/0/description</t>
+  </si>
+  <si>
+    <t>contracts/0/amendments/0/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>contracts/0/amendments/0/releaseID</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/id</t>
   </si>
   <si>
@@ -520,12 +666,21 @@
     <t>contracts/0/implementation/milestones/0/title</t>
   </si>
   <si>
+    <t>contracts/0/implementation/milestones/0/type</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/milestones/0/description</t>
   </si>
   <si>
+    <t>contracts/0/implementation/milestones/0/code</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/milestones/0/dueDate</t>
   </si>
   <si>
+    <t>contracts/0/implementation/milestones/0/dateMet</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/milestones/0/dateModified</t>
   </si>
   <si>
@@ -535,12 +690,141 @@
     <t>contracts/0/implementation/transactions/0/id</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/payee/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/additionalIdentifiers/0/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/additionalIdentifiers/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/additionalIdentifiers/0/legalName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/additionalIdentifiers/0/uri</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/additionalIdentifiers/0/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/additionalIdentifiers/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/additionalIdentifiers/0/legalName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/additionalIdentifiers/0/uri</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/transactions/0/source</t>
   </si>
   <si>
     <t>contracts/0/implementation/transactions/0/date</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/value/amount</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/value/currency</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/name</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/identifier/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/identifier/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/identifier/legalName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/identifier/uri</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/address/streetAddress</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/address/locality</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/address/region</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/address/postalCode</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/address/countryName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/contactPoint/name</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/contactPoint/email</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/contactPoint/telephone</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/contactPoint/faxNumber</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payer/contactPoint/url</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/name</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/identifier/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/identifier/id</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/identifier/legalName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/identifier/uri</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/address/streetAddress</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/address/locality</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/address/region</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/address/postalCode</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/address/countryName</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/contactPoint/name</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/contactPoint/email</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/contactPoint/telephone</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/contactPoint/faxNumber</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/payee/contactPoint/url</t>
+  </si>
+  <si>
+    <t>contracts/0/implementation/transactions/0/uri</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/transactions/0/amount/amount</t>
   </si>
   <si>
@@ -571,12 +855,45 @@
     <t>contracts/0/implementation/transactions/0/receiverOrganization/uri</t>
   </si>
   <si>
-    <t>contracts/0/implementation/transactions/0/uri</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/id</t>
   </si>
   <si>
+    <t>contracts/0/items/0/description</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/classification/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/classification/id</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/classification/description</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/classification/uri</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/quantity</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/id</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/name</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/value/amount</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/value/currency</t>
+  </si>
+  <si>
+    <t>contracts/0/items/0/unit/uri</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/additionalClassifications/0/scheme</t>
   </si>
   <si>
@@ -589,31 +906,76 @@
     <t>contracts/0/items/0/additionalClassifications/0/uri</t>
   </si>
   <si>
-    <t>contracts/0/items/0/description</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/classification/scheme</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/classification/id</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/classification/description</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/classification/uri</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/quantity</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/unit/name</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/unit/value/amount</t>
-  </si>
-  <si>
-    <t>contracts/0/items/0/unit/value/currency</t>
+    <t>contracts/0/milestones/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/documentType</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/title</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/description</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/url</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/datePublished</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/dateModified</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/format</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/documents/0/language</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/title</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/type</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/description</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/code</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/dueDate</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/dateMet</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/dateModified</t>
+  </si>
+  <si>
+    <t>contracts/0/milestones/0/status</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/id</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/relationship</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/title</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/scheme</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/identifier</t>
+  </si>
+  <si>
+    <t>contracts/0/relatedProcesses/0/uri</t>
   </si>
   <si>
     <t>contracts/0/awardID</t>
@@ -634,6 +996,12 @@
     <t>contracts/0/period/endDate</t>
   </si>
   <si>
+    <t>contracts/0/period/maxExtentDate</t>
+  </si>
+  <si>
+    <t>contracts/0/period/durationInDays</t>
+  </si>
+  <si>
     <t>contracts/0/value/amount</t>
   </si>
   <si>
@@ -649,6 +1017,78 @@
     <t>contracts/0/amendment/rationale</t>
   </si>
   <si>
+    <t>contracts/0/amendment/description</t>
+  </si>
+  <si>
+    <t>contracts/0/amendment/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>contracts/0/amendment/releaseID</t>
+  </si>
+  <si>
+    <t>parties/0/id</t>
+  </si>
+  <si>
+    <t>parties/0/additionalIdentifiers/0/scheme</t>
+  </si>
+  <si>
+    <t>parties/0/additionalIdentifiers/0/id</t>
+  </si>
+  <si>
+    <t>parties/0/additionalIdentifiers/0/legalName</t>
+  </si>
+  <si>
+    <t>parties/0/additionalIdentifiers/0/uri</t>
+  </si>
+  <si>
+    <t>parties/0/name</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/scheme</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/id</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/legalName</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/uri</t>
+  </si>
+  <si>
+    <t>parties/0/address/streetAddress</t>
+  </si>
+  <si>
+    <t>parties/0/address/locality</t>
+  </si>
+  <si>
+    <t>parties/0/address/region</t>
+  </si>
+  <si>
+    <t>parties/0/address/postalCode</t>
+  </si>
+  <si>
+    <t>parties/0/address/countryName</t>
+  </si>
+  <si>
+    <t>parties/0/contactPoint/name</t>
+  </si>
+  <si>
+    <t>parties/0/contactPoint/email</t>
+  </si>
+  <si>
+    <t>parties/0/contactPoint/telephone</t>
+  </si>
+  <si>
+    <t>parties/0/contactPoint/faxNumber</t>
+  </si>
+  <si>
+    <t>parties/0/contactPoint/url</t>
+  </si>
+  <si>
+    <t>parties/0/roles</t>
+  </si>
+  <si>
     <t>planning/documents/0/id</t>
   </si>
   <si>
@@ -676,9 +1116,102 @@
     <t>planning/documents/0/language</t>
   </si>
   <si>
+    <t>planning/milestones/0/id</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/id</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/documentType</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/title</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/description</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/url</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/datePublished</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/dateModified</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/format</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/documents/0/language</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/title</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/type</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/description</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/code</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/dueDate</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/dateMet</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/dateModified</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/status</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/id</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/relationship</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/title</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/scheme</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/identifier</t>
+  </si>
+  <si>
+    <t>relatedProcesses/0/uri</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/id</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/changes/0/property</t>
+  </si>
+  <si>
     <t>tender/amendment/changes/0/property</t>
   </si>
   <si>
+    <t>tender/amendments/0/date</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/rationale</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/description</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/releaseID</t>
+  </si>
+  <si>
     <t>tender/documents/0/id</t>
   </si>
   <si>
@@ -709,6 +1242,42 @@
     <t>tender/items/0/id</t>
   </si>
   <si>
+    <t>tender/items/0/description</t>
+  </si>
+  <si>
+    <t>tender/items/0/classification/scheme</t>
+  </si>
+  <si>
+    <t>tender/items/0/classification/id</t>
+  </si>
+  <si>
+    <t>tender/items/0/classification/description</t>
+  </si>
+  <si>
+    <t>tender/items/0/classification/uri</t>
+  </si>
+  <si>
+    <t>tender/items/0/quantity</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/scheme</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/id</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/name</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/value/amount</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/value/currency</t>
+  </si>
+  <si>
+    <t>tender/items/0/unit/uri</t>
+  </si>
+  <si>
     <t>tender/items/0/additionalClassifications/0/scheme</t>
   </si>
   <si>
@@ -721,33 +1290,6 @@
     <t>tender/items/0/additionalClassifications/0/uri</t>
   </si>
   <si>
-    <t>tender/items/0/description</t>
-  </si>
-  <si>
-    <t>tender/items/0/classification/scheme</t>
-  </si>
-  <si>
-    <t>tender/items/0/classification/id</t>
-  </si>
-  <si>
-    <t>tender/items/0/classification/description</t>
-  </si>
-  <si>
-    <t>tender/items/0/classification/uri</t>
-  </si>
-  <si>
-    <t>tender/items/0/quantity</t>
-  </si>
-  <si>
-    <t>tender/items/0/unit/name</t>
-  </si>
-  <si>
-    <t>tender/items/0/unit/value/amount</t>
-  </si>
-  <si>
-    <t>tender/items/0/unit/value/currency</t>
-  </si>
-  <si>
     <t>tender/milestones/0/id</t>
   </si>
   <si>
@@ -781,12 +1323,21 @@
     <t>tender/milestones/0/title</t>
   </si>
   <si>
+    <t>tender/milestones/0/type</t>
+  </si>
+  <si>
     <t>tender/milestones/0/description</t>
   </si>
   <si>
+    <t>tender/milestones/0/code</t>
+  </si>
+  <si>
     <t>tender/milestones/0/dueDate</t>
   </si>
   <si>
+    <t>tender/milestones/0/dateMet</t>
+  </si>
+  <si>
     <t>tender/milestones/0/dateModified</t>
   </si>
   <si>
@@ -805,6 +1356,9 @@
     <t>tender/procuringEntity/additionalIdentifiers/0/uri</t>
   </si>
   <si>
+    <t>tender/tenderers/0/id</t>
+  </si>
+  <si>
     <t>tender/tenderers/0/additionalIdentifiers/0/scheme</t>
   </si>
   <si>
@@ -817,6 +1371,9 @@
     <t>tender/tenderers/0/additionalIdentifiers/0/uri</t>
   </si>
   <si>
+    <t>tender/tenderers/0/name</t>
+  </si>
+  <si>
     <t>tender/tenderers/0/identifier/scheme</t>
   </si>
   <si>
@@ -827,9 +1384,6 @@
   </si>
   <si>
     <t>tender/tenderers/0/identifier/uri</t>
-  </si>
-  <si>
-    <t>tender/tenderers/0/name</t>
   </si>
   <si>
     <t>tender/tenderers/0/address/streetAddress</t>
@@ -897,12 +1451,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1196,15 +1749,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR1"/>
+  <dimension ref="A1:CK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:89">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,6 +1967,63 @@
       </c>
       <c r="BR1" t="s">
         <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1427,15 +2037,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,10 +2053,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1455,6 +2074,96 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +2175,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1476,34 +2185,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +2220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1523,7 +2232,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1533,34 +2242,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +2289,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1590,37 +2299,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +2337,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1640,7 +2406,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1650,25 +2416,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1676,21 +2442,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1698,49 +2464,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +2490,292 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:51">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1760,7 +2787,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1770,22 +2797,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +2820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1805,7 +2832,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1815,37 +2842,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="L1" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="M1" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1853,190 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2048,7 +2892,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -2058,34 +2902,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2093,172 +2937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2270,7 +2949,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -2280,25 +2959,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +3078,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -2328,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2349,6 +3109,342 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,7 +3456,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -2370,19 +3466,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2390,21 +3486,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2412,52 +3508,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="H1" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="I1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>271</v>
-      </c>
-      <c r="R1" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3546,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -2487,34 +3556,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +3591,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +3672,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2544,22 +3682,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2567,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2579,7 +3717,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -2589,37 +3727,388 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="H1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" t="s">
+        <v>445</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>446</v>
+      </c>
+      <c r="N1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>450</v>
+      </c>
+      <c r="R1" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2633,15 +4122,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2649,19 +4138,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2675,15 +4167,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2691,52 +4183,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2750,15 +4212,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2766,37 +4228,55 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M1" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2810,15 +4290,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2826,16 +4306,55 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
